--- a/biology/Botanique/Rue_des_montagnes/Rue_des_montagnes.xlsx
+++ b/biology/Botanique/Rue_des_montagnes/Rue_des_montagnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ruta montana
 La Rue des montagnes (Ruta montana) est une espèce méditerranéenne de plantes à fleurs de la famille des Rutaceae.
@@ -512,12 +524,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Ruta montana (L.) L.[1].
-Le basionyme de ce taxon est : Ruta graveolens montana L.[1]
-Ce taxon porte en français le nom vernaculaire ou normalisé suivant : rue des montagnes[2],[3],[4].
-Ruta montana a pour synonymes[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom scientifique complet (avec auteur) de ce taxon est Ruta montana (L.) L..
+Le basionyme de ce taxon est : Ruta graveolens montana L.
+Ce taxon porte en français le nom vernaculaire ou normalisé suivant : rue des montagnes.
+Ruta montana a pour synonymes :
 Ruta graveolens var. montana L.
 Ruta legitima All.
 Ruta montana Mill.
